--- a/10x10-0.1-visited.xlsx
+++ b/10x10-0.1-visited.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kunal\git\AIFinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maddy\Desktop\Code\AI_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="10065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="10070"/>
   </bookViews>
   <sheets>
     <sheet name="10x10-0.1-visited" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t># Mazes Completed</t>
   </si>
   <si>
-    <t>Visited Squares</t>
+    <t>Reversed</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -568,6 +571,1375 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10x10-0.1-visited'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'10x10-0.1-visited'!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0202-4078-AAC7-BCD8B0E54ED5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10x10-0.1-visited'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reversed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'10x10-0.1-visited'!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0202-4078-AAC7-BCD8B0E54ED5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="379392352"/>
+        <c:axId val="379390056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="379392352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379390056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="379390056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379392352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -831,1623 +2203,1127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77:F101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>18567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="C76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D77">
         <v>76</v>
       </c>
-      <c r="B77">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="E77">
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D78">
         <v>77</v>
       </c>
-      <c r="B78">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D79">
         <v>78</v>
       </c>
-      <c r="B79">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="E79">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D80">
         <v>79</v>
       </c>
-      <c r="B80">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D81">
         <v>80</v>
       </c>
-      <c r="B81">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D82">
         <v>81</v>
       </c>
-      <c r="B82">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D83">
         <v>82</v>
       </c>
-      <c r="B83">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D84">
         <v>83</v>
       </c>
-      <c r="B84">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D85">
         <v>84</v>
       </c>
-      <c r="B85">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="F85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D86">
         <v>85</v>
       </c>
-      <c r="B86">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="E86">
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D87">
         <v>86</v>
       </c>
-      <c r="B87">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="E87">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D88">
         <v>87</v>
       </c>
-      <c r="B88">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="E88">
+        <v>10</v>
+      </c>
+      <c r="F88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D89">
         <v>88</v>
       </c>
-      <c r="B89">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="E89">
+        <v>10</v>
+      </c>
+      <c r="F89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D90">
         <v>89</v>
       </c>
-      <c r="B90">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="F90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D91">
         <v>90</v>
       </c>
-      <c r="B91">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="E91">
+        <v>10</v>
+      </c>
+      <c r="F91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D92">
         <v>91</v>
       </c>
-      <c r="B92">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D93">
         <v>92</v>
       </c>
-      <c r="B93">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="E93">
+        <v>10</v>
+      </c>
+      <c r="F93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D94">
         <v>93</v>
       </c>
-      <c r="B94">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="E94">
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D95">
         <v>94</v>
       </c>
-      <c r="B95">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D96">
         <v>95</v>
       </c>
-      <c r="B96">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D97">
         <v>96</v>
       </c>
-      <c r="B97">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D98">
         <v>97</v>
       </c>
-      <c r="B98">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="E98">
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D99">
         <v>98</v>
       </c>
-      <c r="B99">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="E99">
+        <v>10</v>
+      </c>
+      <c r="F99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D100">
         <v>99</v>
       </c>
-      <c r="B100">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="E100">
+        <v>10</v>
+      </c>
+      <c r="F100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D101">
         <v>100</v>
       </c>
-      <c r="B101">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102">
-        <v>18567</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="B134">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="B137">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="B138">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="B139">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="B143">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="B144">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="B145">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="B146">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="B147">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>151</v>
-      </c>
-      <c r="B152">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>152</v>
-      </c>
-      <c r="B153">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>153</v>
-      </c>
-      <c r="B154">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>154</v>
-      </c>
-      <c r="B155">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="B156">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>156</v>
-      </c>
-      <c r="B157">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>157</v>
-      </c>
-      <c r="B158">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>158</v>
-      </c>
-      <c r="B159">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>159</v>
-      </c>
-      <c r="B160">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>160</v>
-      </c>
-      <c r="B161">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>161</v>
-      </c>
-      <c r="B162">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>162</v>
-      </c>
-      <c r="B163">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>163</v>
-      </c>
-      <c r="B164">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>164</v>
-      </c>
-      <c r="B165">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>165</v>
-      </c>
-      <c r="B166">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>166</v>
-      </c>
-      <c r="B167">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>167</v>
-      </c>
-      <c r="B168">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>168</v>
-      </c>
-      <c r="B169">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>169</v>
-      </c>
-      <c r="B170">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>170</v>
-      </c>
-      <c r="B171">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>171</v>
-      </c>
-      <c r="B172">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>172</v>
-      </c>
-      <c r="B173">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>173</v>
-      </c>
-      <c r="B174">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>174</v>
-      </c>
-      <c r="B175">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>175</v>
-      </c>
-      <c r="B176">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>176</v>
-      </c>
-      <c r="B177">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>177</v>
-      </c>
-      <c r="B178">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>178</v>
-      </c>
-      <c r="B179">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>179</v>
-      </c>
-      <c r="B180">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>180</v>
-      </c>
-      <c r="B181">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>181</v>
-      </c>
-      <c r="B182">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>182</v>
-      </c>
-      <c r="B183">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>183</v>
-      </c>
-      <c r="B184">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>184</v>
-      </c>
-      <c r="B185">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>185</v>
-      </c>
-      <c r="B186">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>186</v>
-      </c>
-      <c r="B187">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>187</v>
-      </c>
-      <c r="B188">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>188</v>
-      </c>
-      <c r="B189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>189</v>
-      </c>
-      <c r="B190">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>190</v>
-      </c>
-      <c r="B191">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>191</v>
-      </c>
-      <c r="B192">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>192</v>
-      </c>
-      <c r="B193">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>193</v>
-      </c>
-      <c r="B194">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>194</v>
-      </c>
-      <c r="B195">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>195</v>
-      </c>
-      <c r="B196">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>196</v>
-      </c>
-      <c r="B197">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>197</v>
-      </c>
-      <c r="B198">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>198</v>
-      </c>
-      <c r="B199">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>199</v>
-      </c>
-      <c r="B200">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>200</v>
-      </c>
-      <c r="B201">
+      <c r="E101">
+        <v>10</v>
+      </c>
+      <c r="F101">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>